--- a/GradeDistributionsDB/Fall2015/Output/Fall2015 GB.xlsx
+++ b/GradeDistributionsDB/Fall2015/Output/Fall2015 GB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
   <si>
     <t>Course</t>
   </si>
@@ -43,7 +43,34 @@
     <t>BUSH-631</t>
   </si>
   <si>
-    <t>TOTAL S</t>
+    <t>MARCHBANKS M</t>
+  </si>
+  <si>
+    <t>58.54%</t>
+  </si>
+  <si>
+    <t>19.51%</t>
+  </si>
+  <si>
+    <t>17.07%</t>
+  </si>
+  <si>
+    <t>4.88%</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>MOLINA A</t>
+  </si>
+  <si>
+    <t>39.02%</t>
+  </si>
+  <si>
+    <t>60.98%</t>
+  </si>
+  <si>
+    <t>LEE Y</t>
   </si>
   <si>
     <t>59.09%</t>
@@ -55,48 +82,6 @@
     <t>9.09%</t>
   </si>
   <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>MARCHBANKS M</t>
-  </si>
-  <si>
-    <t>58.54%</t>
-  </si>
-  <si>
-    <t>19.51%</t>
-  </si>
-  <si>
-    <t>17.07%</t>
-  </si>
-  <si>
-    <t>4.88%</t>
-  </si>
-  <si>
-    <t>DEPARTMENT T</t>
-  </si>
-  <si>
-    <t>BUSH S</t>
-  </si>
-  <si>
-    <t>MOLINA A</t>
-  </si>
-  <si>
-    <t>39.02%</t>
-  </si>
-  <si>
-    <t>60.98%</t>
-  </si>
-  <si>
-    <t>INTERNATIONAL A</t>
-  </si>
-  <si>
-    <t>TEXAS A</t>
-  </si>
-  <si>
-    <t>LEE Y</t>
-  </si>
-  <si>
     <t>INTA-601</t>
   </si>
   <si>
@@ -109,9 +94,57 @@
     <t>9.80%</t>
   </si>
   <si>
+    <t>INTA-603</t>
+  </si>
+  <si>
+    <t>NAPPER L</t>
+  </si>
+  <si>
+    <t>68.18%</t>
+  </si>
+  <si>
+    <t>27.27%</t>
+  </si>
+  <si>
+    <t>4.55%</t>
+  </si>
+  <si>
+    <t>INTA-605</t>
+  </si>
+  <si>
+    <t>TALBOT B</t>
+  </si>
+  <si>
+    <t>66.67%</t>
+  </si>
+  <si>
+    <t>33.33%</t>
+  </si>
+  <si>
+    <t>DONNELLY J</t>
+  </si>
+  <si>
+    <t>88.00%</t>
+  </si>
+  <si>
+    <t>8.00%</t>
+  </si>
+  <si>
+    <t>4.00%</t>
+  </si>
+  <si>
     <t>INTA-606</t>
   </si>
   <si>
+    <t>HERMANN C</t>
+  </si>
+  <si>
+    <t>58.70%</t>
+  </si>
+  <si>
+    <t>41.30%</t>
+  </si>
+  <si>
     <t>ROSS A</t>
   </si>
   <si>
@@ -121,6 +154,15 @@
     <t>47.37%</t>
   </si>
   <si>
+    <t>MARIN T</t>
+  </si>
+  <si>
+    <t>91.30%</t>
+  </si>
+  <si>
+    <t>8.70%</t>
+  </si>
+  <si>
     <t>INTA-608</t>
   </si>
   <si>
@@ -130,9 +172,6 @@
     <t>63.33%</t>
   </si>
   <si>
-    <t>33.33%</t>
-  </si>
-  <si>
     <t>3.33%</t>
   </si>
   <si>
@@ -256,9 +295,6 @@
     <t>OLSON J</t>
   </si>
   <si>
-    <t>66.67%</t>
-  </si>
-  <si>
     <t>RUSSELL R</t>
   </si>
   <si>
@@ -322,9 +358,6 @@
     <t>INTA-670</t>
   </si>
   <si>
-    <t>MARIN T</t>
-  </si>
-  <si>
     <t>HOLZWEISS R</t>
   </si>
   <si>
@@ -367,9 +400,6 @@
     <t>INTA-686</t>
   </si>
   <si>
-    <t>NAPPER L</t>
-  </si>
-  <si>
     <t>91.67%</t>
   </si>
   <si>
@@ -385,18 +415,12 @@
     <t>15.38%</t>
   </si>
   <si>
-    <t>PUBLIC S</t>
+    <t>VEGA A</t>
   </si>
   <si>
     <t>83.33%</t>
   </si>
   <si>
-    <t>DONNELLY J</t>
-  </si>
-  <si>
-    <t>VEGA A</t>
-  </si>
-  <si>
     <t>HAMIE C</t>
   </si>
   <si>
@@ -433,6 +457,36 @@
     <t>14.29%</t>
   </si>
   <si>
+    <t>PSAA-604</t>
+  </si>
+  <si>
+    <t>MCINTYRE D</t>
+  </si>
+  <si>
+    <t>PSAA-606</t>
+  </si>
+  <si>
+    <t>PORTNEY K</t>
+  </si>
+  <si>
+    <t>PSAA-608</t>
+  </si>
+  <si>
+    <t>WHITTEN G</t>
+  </si>
+  <si>
+    <t>PSAA-610</t>
+  </si>
+  <si>
+    <t>HILDERBRAND M</t>
+  </si>
+  <si>
+    <t>44.44%</t>
+  </si>
+  <si>
+    <t>55.56%</t>
+  </si>
+  <si>
     <t>PSAA-615</t>
   </si>
   <si>
@@ -457,9 +511,6 @@
     <t>BOWMAN A</t>
   </si>
   <si>
-    <t>68.18%</t>
-  </si>
-  <si>
     <t>PSAA-621</t>
   </si>
   <si>
@@ -481,9 +532,6 @@
     <t>22.73%</t>
   </si>
   <si>
-    <t>4.55%</t>
-  </si>
-  <si>
     <t>PSAA-623</t>
   </si>
   <si>
@@ -538,9 +586,6 @@
     <t>37.04%</t>
   </si>
   <si>
-    <t>44.44%</t>
-  </si>
-  <si>
     <t>11.11%</t>
   </si>
   <si>
@@ -559,9 +604,6 @@
     <t>4.35%</t>
   </si>
   <si>
-    <t>8.70%</t>
-  </si>
-  <si>
     <t>PSAA-644</t>
   </si>
   <si>
@@ -586,9 +628,6 @@
     <t>SMITH S</t>
   </si>
   <si>
-    <t>55.56%</t>
-  </si>
-  <si>
     <t>PSAA-656</t>
   </si>
   <si>
@@ -610,7 +649,10 @@
     <t>PSAA-675</t>
   </si>
   <si>
-    <t>MCINTYRE D</t>
+    <t>ROSSER A</t>
+  </si>
+  <si>
+    <t>MORRISON J</t>
   </si>
   <si>
     <t>BROWN W</t>
@@ -625,19 +667,7 @@
     <t>GRIFFIN J</t>
   </si>
   <si>
-    <t>HILDERBRAND M</t>
-  </si>
-  <si>
     <t>PSAA-689</t>
-  </si>
-  <si>
-    <t>27.27%</t>
-  </si>
-  <si>
-    <t>PORTNEY K</t>
-  </si>
-  <si>
-    <t>COLLEGE T</t>
   </si>
 </sst>
 </file>
@@ -974,7 +1004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>3.5</v>
+        <v>3.343</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1033,1743 +1063,1620 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>3.343</v>
+        <v>3.3885</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
         <v>3.5</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.3885</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="A7" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.908</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" t="s">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
+      <c r="C11" t="n">
+        <v>3.6367</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.908</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.526</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>35</v>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.587</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="B19" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C19" t="n">
-        <v>3.6</v>
+        <v>3.526</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="B20" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C20" t="n">
-        <v>3.448</v>
+        <v>3.913</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C23" t="n">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C24" t="n">
-        <v>3.824</v>
+        <v>3.448</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="B27" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C27" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="n">
         <v>3.714</v>
       </c>
-      <c r="D27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" t="n">
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="n">
         <v>3.714</v>
       </c>
-      <c r="D30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="B33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" t="n">
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="n">
         <v>3.5</v>
       </c>
-      <c r="D33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="D40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="D36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="B39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" t="n">
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" t="n">
         <v>3.6</v>
       </c>
-      <c r="D39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="B42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" t="n">
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" t="n">
         <v>4</v>
       </c>
-      <c r="D42" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="B45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3.417</v>
-      </c>
-      <c r="D45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" t="s">
-        <v>70</v>
-      </c>
-      <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>71</v>
+      <c r="D46" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="B48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="D48" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" t="s">
-        <v>73</v>
-      </c>
-      <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" t="s">
-        <v>13</v>
+      <c r="A48" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C49" t="n">
-        <v>3.76</v>
+        <v>3.417</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="B52" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C52" t="n">
-        <v>3.438</v>
+        <v>3.76</v>
       </c>
       <c r="D52" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E52" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C55" t="n">
+        <v>3.438</v>
+      </c>
+      <c r="D55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" t="n">
         <v>3.667</v>
       </c>
-      <c r="D55" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2.909</v>
-      </c>
-      <c r="D56" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>84</v>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="B59" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C59" t="n">
+        <v>2.909</v>
+      </c>
+      <c r="D59" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="B62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" t="n">
         <v>3.944</v>
       </c>
-      <c r="D59" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" t="s">
-        <v>87</v>
-      </c>
-      <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="B60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3</v>
-      </c>
-      <c r="D60" t="s">
-        <v>70</v>
-      </c>
-      <c r="E60" t="s">
-        <v>89</v>
-      </c>
-      <c r="F60" t="s">
-        <v>90</v>
-      </c>
-      <c r="G60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="s">
-        <v>91</v>
+      <c r="D62" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" t="s">
+        <v>99</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="B63" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="B66" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C66" t="n">
-        <v>3.357</v>
+        <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E66" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="B69" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C69" t="n">
-        <v>3.7</v>
+        <v>3.357</v>
       </c>
       <c r="D69" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E69" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="B72" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C72" t="n">
-        <v>3.947</v>
+        <v>3.7</v>
       </c>
       <c r="D72" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E72" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="B75" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C75" t="n">
+        <v>3.947</v>
+      </c>
+      <c r="D75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" t="s">
+        <v>112</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="B78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" t="n">
         <v>4</v>
       </c>
-      <c r="D75" t="s">
-        <v>66</v>
-      </c>
-      <c r="E75" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="B76" t="s">
-        <v>103</v>
-      </c>
-      <c r="C76" t="n">
-        <v>4</v>
-      </c>
-      <c r="D76" t="s">
-        <v>66</v>
-      </c>
-      <c r="E76" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>104</v>
+      <c r="D78" t="s">
+        <v>79</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="B79" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C79" t="n">
-        <v>3.385</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="E79" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="B82" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C82" t="n">
-        <v>3.25</v>
+        <v>3.385</v>
       </c>
       <c r="D82" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="E82" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="F82" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="B85" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C85" t="n">
-        <v>3.368</v>
+        <v>3.25</v>
       </c>
       <c r="D85" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="E85" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="B88" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>3.368</v>
       </c>
       <c r="D88" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="E88" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="B91" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C91" t="n">
-        <v>3.917</v>
+        <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="E91" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="B94" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="C94" t="n">
-        <v>3.875</v>
+        <v>3.917</v>
       </c>
       <c r="D94" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E94" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="B95" t="s">
-        <v>123</v>
-      </c>
-      <c r="C95" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D95" t="s">
-        <v>124</v>
-      </c>
-      <c r="E95" t="s">
-        <v>89</v>
-      </c>
-      <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="B96" t="s">
-        <v>125</v>
-      </c>
-      <c r="C96" t="n">
-        <v>4</v>
-      </c>
-      <c r="D96" t="s">
-        <v>66</v>
-      </c>
-      <c r="E96" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" t="s">
-        <v>13</v>
+      <c r="A96" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="B97" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C97" t="n">
-        <v>3.833</v>
+        <v>3.875</v>
       </c>
       <c r="D97" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E97" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="B98" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="C98" t="n">
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="B99" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="C99" t="n">
-        <v>3.833</v>
+        <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="E99" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="B100" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C100" t="n">
         <v>3.833</v>
       </c>
       <c r="D100" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E100" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="B101" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C101" t="n">
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="B102" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C102" t="n">
         <v>3.583</v>
       </c>
       <c r="D102" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E102" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="B103" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D103" t="s">
-        <v>124</v>
-      </c>
-      <c r="E103" t="s">
-        <v>89</v>
-      </c>
-      <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="B104" t="s">
-        <v>25</v>
-      </c>
-      <c r="C104" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D104" t="s">
-        <v>124</v>
-      </c>
-      <c r="E104" t="s">
-        <v>89</v>
-      </c>
-      <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" t="s">
-        <v>13</v>
+      <c r="A104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="B105" t="s">
+        <v>138</v>
+      </c>
+      <c r="C105" t="n">
+        <v>3.976</v>
+      </c>
+      <c r="D105" t="s">
+        <v>139</v>
+      </c>
+      <c r="E105" t="s">
+        <v>140</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" t="s">
-        <v>129</v>
+      <c r="B106" t="s">
+        <v>141</v>
+      </c>
+      <c r="C106" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="D106" t="s">
+        <v>142</v>
+      </c>
+      <c r="E106" t="s">
+        <v>72</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="B107" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C107" t="n">
-        <v>3.976</v>
+        <v>3.381</v>
       </c>
       <c r="D107" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E107" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="B108" t="s">
-        <v>133</v>
-      </c>
-      <c r="C108" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="B110" t="s">
+        <v>148</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D110" t="s">
         <v>134</v>
       </c>
-      <c r="E108" t="s">
-        <v>59</v>
-      </c>
-      <c r="F108" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="B109" t="s">
-        <v>136</v>
-      </c>
-      <c r="C109" t="n">
-        <v>3.381</v>
-      </c>
-      <c r="D109" t="s">
-        <v>137</v>
-      </c>
-      <c r="E109" t="s">
-        <v>38</v>
-      </c>
-      <c r="F109" t="s">
-        <v>138</v>
-      </c>
-      <c r="G109" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" t="s">
-        <v>139</v>
+      <c r="E110" t="s">
+        <v>101</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="B112" t="s">
-        <v>140</v>
-      </c>
-      <c r="C112" t="n">
-        <v>3.978</v>
-      </c>
-      <c r="D112" t="s">
-        <v>141</v>
-      </c>
-      <c r="E112" t="s">
-        <v>142</v>
-      </c>
-      <c r="F112" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" t="s">
-        <v>143</v>
+      <c r="A112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="B113" t="s">
+        <v>150</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3.286</v>
+      </c>
+      <c r="D113" t="s">
+        <v>65</v>
+      </c>
+      <c r="E113" t="s">
+        <v>64</v>
+      </c>
+      <c r="F113" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="B115" t="s">
-        <v>144</v>
-      </c>
-      <c r="C115" t="n">
+      <c r="A115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="B116" t="s">
+        <v>152</v>
+      </c>
+      <c r="C116" t="n">
         <v>4</v>
       </c>
-      <c r="D115" t="s">
-        <v>66</v>
-      </c>
-      <c r="E115" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" t="s">
-        <v>145</v>
+      <c r="D116" t="s">
+        <v>79</v>
+      </c>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="B118" t="s">
-        <v>146</v>
-      </c>
-      <c r="C118" t="n">
-        <v>3.682</v>
-      </c>
-      <c r="D118" t="s">
-        <v>147</v>
-      </c>
-      <c r="E118" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" t="s">
-        <v>13</v>
-      </c>
-      <c r="H118" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" t="s">
-        <v>148</v>
+      <c r="A118" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="B119" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="D119" t="s">
+        <v>155</v>
+      </c>
+      <c r="E119" t="s">
+        <v>156</v>
+      </c>
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="B121" t="s">
-        <v>149</v>
-      </c>
-      <c r="C121" t="n">
-        <v>3.1205</v>
-      </c>
-      <c r="D121" t="s">
-        <v>150</v>
-      </c>
-      <c r="E121" t="s">
-        <v>151</v>
-      </c>
-      <c r="F121" t="s">
-        <v>30</v>
-      </c>
-      <c r="G121" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" t="s">
-        <v>13</v>
+      <c r="A121" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="B122" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C122" t="n">
-        <v>3.682</v>
+        <v>3.978</v>
       </c>
       <c r="D122" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E122" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F122" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="B125" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C125" t="n">
-        <v>3.9735</v>
+        <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="E125" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="B128" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C128" t="n">
-        <v>3.417</v>
+        <v>3.682</v>
       </c>
       <c r="D128" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E128" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="B131" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C131" t="n">
-        <v>3.909</v>
+        <v>3.1205</v>
       </c>
       <c r="D131" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E131" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" t="s">
-        <v>163</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="B132" t="s">
+        <v>169</v>
+      </c>
+      <c r="C132" t="n">
+        <v>3.682</v>
+      </c>
+      <c r="D132" t="s">
+        <v>170</v>
+      </c>
+      <c r="E132" t="s">
+        <v>171</v>
+      </c>
+      <c r="F132" t="s">
+        <v>30</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="B134" t="s">
-        <v>161</v>
-      </c>
-      <c r="C134" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D134" t="s">
-        <v>164</v>
-      </c>
-      <c r="E134" t="s">
-        <v>13</v>
-      </c>
-      <c r="F134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" t="s">
-        <v>13</v>
-      </c>
-      <c r="H134" t="s">
-        <v>165</v>
+      <c r="A134" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="B135" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C135" t="n">
-        <v>3.9</v>
+        <v>3.9735</v>
       </c>
       <c r="D135" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E135" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="B138" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C138" t="n">
-        <v>3.214</v>
+        <v>3.417</v>
       </c>
       <c r="D138" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="E138" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="B141" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C141" t="n">
-        <v>3.111</v>
+        <v>3.909</v>
       </c>
       <c r="D141" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E141" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="F141" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="G141" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="B142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="B144" t="s">
         <v>177</v>
       </c>
-      <c r="C142" t="n">
-        <v>3.4885</v>
-      </c>
-      <c r="D142" t="s">
-        <v>178</v>
-      </c>
-      <c r="E142" t="s">
-        <v>179</v>
-      </c>
-      <c r="F142" t="s">
+      <c r="C144" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D144" t="s">
         <v>180</v>
       </c>
-      <c r="G142" t="s">
-        <v>13</v>
-      </c>
-      <c r="H142" t="s">
+      <c r="E144" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="B145" t="s">
+        <v>182</v>
+      </c>
+      <c r="C145" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D145" t="s">
         <v>183</v>
       </c>
-      <c r="C145" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>184</v>
       </c>
-      <c r="E145" t="s">
-        <v>185</v>
-      </c>
       <c r="F145" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="B148" t="s">
+        <v>186</v>
+      </c>
+      <c r="C148" t="n">
+        <v>3.214</v>
+      </c>
+      <c r="D148" t="s">
+        <v>106</v>
+      </c>
+      <c r="E148" t="s">
         <v>187</v>
       </c>
-      <c r="C148" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D148" t="s">
-        <v>174</v>
-      </c>
-      <c r="E148" t="s">
-        <v>174</v>
-      </c>
       <c r="F148" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -2779,349 +2686,456 @@
     </row>
     <row r="151" spans="1:8">
       <c r="B151" t="s">
+        <v>182</v>
+      </c>
+      <c r="C151" t="n">
+        <v>3.111</v>
+      </c>
+      <c r="D151" t="s">
         <v>189</v>
       </c>
-      <c r="C151" t="n">
+      <c r="E151" t="s">
+        <v>155</v>
+      </c>
+      <c r="F151" t="s">
+        <v>190</v>
+      </c>
+      <c r="G151" t="s">
+        <v>191</v>
+      </c>
+      <c r="H151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="B152" t="s">
+        <v>192</v>
+      </c>
+      <c r="C152" t="n">
+        <v>3.4885</v>
+      </c>
+      <c r="D152" t="s">
+        <v>193</v>
+      </c>
+      <c r="E152" t="s">
+        <v>194</v>
+      </c>
+      <c r="F152" t="s">
+        <v>195</v>
+      </c>
+      <c r="G152" t="s">
+        <v>14</v>
+      </c>
+      <c r="H152" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="B155" t="s">
+        <v>197</v>
+      </c>
+      <c r="C155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D155" t="s">
+        <v>198</v>
+      </c>
+      <c r="E155" t="s">
+        <v>199</v>
+      </c>
+      <c r="F155" t="s">
+        <v>190</v>
+      </c>
+      <c r="G155" t="s">
+        <v>14</v>
+      </c>
+      <c r="H155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="B158" t="s">
+        <v>201</v>
+      </c>
+      <c r="C158" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D158" t="s">
+        <v>155</v>
+      </c>
+      <c r="E158" t="s">
+        <v>155</v>
+      </c>
+      <c r="F158" t="s">
+        <v>190</v>
+      </c>
+      <c r="G158" t="s">
+        <v>14</v>
+      </c>
+      <c r="H158" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="B161" t="s">
+        <v>203</v>
+      </c>
+      <c r="C161" t="n">
         <v>3.222</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D161" t="s">
+        <v>156</v>
+      </c>
+      <c r="E161" t="s">
+        <v>34</v>
+      </c>
+      <c r="F161" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161" t="s">
+        <v>14</v>
+      </c>
+      <c r="H161" t="s">
         <v>190</v>
       </c>
-      <c r="E151" t="s">
-        <v>38</v>
-      </c>
-      <c r="F151" t="s">
-        <v>13</v>
-      </c>
-      <c r="G151" t="s">
-        <v>13</v>
-      </c>
-      <c r="H151" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="B154" t="s">
-        <v>192</v>
-      </c>
-      <c r="C154" t="n">
-        <v>3.286</v>
-      </c>
-      <c r="D154" t="s">
-        <v>51</v>
-      </c>
-      <c r="E154" t="s">
-        <v>138</v>
-      </c>
-      <c r="F154" t="s">
-        <v>13</v>
-      </c>
-      <c r="G154" t="s">
-        <v>13</v>
-      </c>
-      <c r="H154" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="B157" t="s">
-        <v>192</v>
-      </c>
-      <c r="C157" t="n">
-        <v>3.938</v>
-      </c>
-      <c r="D157" t="s">
-        <v>194</v>
-      </c>
-      <c r="E157" t="s">
-        <v>135</v>
-      </c>
-      <c r="F157" t="s">
-        <v>13</v>
-      </c>
-      <c r="G157" t="s">
-        <v>13</v>
-      </c>
-      <c r="H157" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="B160" t="s">
-        <v>177</v>
-      </c>
-      <c r="C160" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D160" t="s">
-        <v>196</v>
-      </c>
-      <c r="E160" t="s">
-        <v>138</v>
-      </c>
-      <c r="F160" t="s">
-        <v>13</v>
-      </c>
-      <c r="G160" t="s">
-        <v>13</v>
-      </c>
-      <c r="H160" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="B163" t="s">
-        <v>133</v>
-      </c>
-      <c r="C163" t="n">
-        <v>4</v>
-      </c>
-      <c r="D163" t="s">
-        <v>66</v>
-      </c>
-      <c r="E163" t="s">
-        <v>13</v>
-      </c>
-      <c r="F163" t="s">
-        <v>13</v>
-      </c>
-      <c r="G163" t="s">
-        <v>13</v>
-      </c>
-      <c r="H163" t="s">
-        <v>13</v>
+      <c r="A163" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="B164" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C164" t="n">
-        <v>4</v>
+        <v>3.286</v>
       </c>
       <c r="D164" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E164" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="F164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="B165" t="s">
-        <v>199</v>
-      </c>
-      <c r="C165" t="n">
-        <v>4</v>
-      </c>
-      <c r="D165" t="s">
-        <v>66</v>
-      </c>
-      <c r="E165" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165" t="s">
-        <v>13</v>
-      </c>
-      <c r="G165" t="s">
-        <v>13</v>
-      </c>
-      <c r="H165" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="B166" t="s">
-        <v>200</v>
-      </c>
-      <c r="C166" t="n">
-        <v>4</v>
-      </c>
-      <c r="D166" t="s">
-        <v>66</v>
-      </c>
-      <c r="E166" t="s">
-        <v>13</v>
-      </c>
-      <c r="F166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G166" t="s">
-        <v>13</v>
-      </c>
-      <c r="H166" t="s">
-        <v>13</v>
+      <c r="A166" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="B167" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C167" t="n">
-        <v>4</v>
+        <v>3.938</v>
       </c>
       <c r="D167" t="s">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="E167" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="F167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="B168" t="s">
-        <v>202</v>
-      </c>
-      <c r="C168" t="n">
-        <v>3.667</v>
-      </c>
-      <c r="D168" t="s">
-        <v>80</v>
-      </c>
-      <c r="E168" t="s">
-        <v>38</v>
-      </c>
-      <c r="F168" t="s">
-        <v>13</v>
-      </c>
-      <c r="G168" t="s">
-        <v>13</v>
-      </c>
-      <c r="H168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="B169" t="s">
-        <v>203</v>
-      </c>
-      <c r="C169" t="n">
-        <v>3</v>
-      </c>
-      <c r="D169" t="s">
-        <v>13</v>
-      </c>
-      <c r="E169" t="s">
-        <v>66</v>
-      </c>
-      <c r="F169" t="s">
-        <v>13</v>
-      </c>
-      <c r="G169" t="s">
-        <v>13</v>
-      </c>
-      <c r="H169" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" t="s">
-        <v>204</v>
+      <c r="A169" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="B170" t="s">
+        <v>192</v>
+      </c>
+      <c r="C170" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="D170" t="s">
+        <v>209</v>
+      </c>
+      <c r="E170" t="s">
+        <v>146</v>
+      </c>
+      <c r="F170" t="s">
+        <v>14</v>
+      </c>
+      <c r="G170" t="s">
+        <v>14</v>
+      </c>
+      <c r="H170" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="B172" t="s">
-        <v>19</v>
-      </c>
-      <c r="C172" t="n">
-        <v>3.727</v>
-      </c>
-      <c r="D172" t="s">
-        <v>153</v>
-      </c>
-      <c r="E172" t="s">
-        <v>205</v>
-      </c>
-      <c r="F172" t="s">
-        <v>13</v>
-      </c>
-      <c r="G172" t="s">
-        <v>13</v>
-      </c>
-      <c r="H172" t="s">
-        <v>13</v>
+      <c r="A172" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="B173" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="C173" t="n">
-        <v>3.727</v>
+        <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="E173" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="F173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="B174" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="C174" t="n">
+        <v>3</v>
+      </c>
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" t="s">
+        <v>79</v>
+      </c>
+      <c r="F174" t="s">
+        <v>14</v>
+      </c>
+      <c r="G174" t="s">
+        <v>14</v>
+      </c>
+      <c r="H174" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="B175" t="s">
+        <v>211</v>
+      </c>
+      <c r="C175" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D175" t="s">
+        <v>134</v>
+      </c>
+      <c r="E175" t="s">
+        <v>101</v>
+      </c>
+      <c r="F175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G175" t="s">
+        <v>14</v>
+      </c>
+      <c r="H175" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="B176" t="s">
+        <v>148</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4</v>
+      </c>
+      <c r="D176" t="s">
+        <v>79</v>
+      </c>
+      <c r="E176" t="s">
+        <v>14</v>
+      </c>
+      <c r="F176" t="s">
+        <v>14</v>
+      </c>
+      <c r="G176" t="s">
+        <v>14</v>
+      </c>
+      <c r="H176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="B177" t="s">
+        <v>212</v>
+      </c>
+      <c r="C177" t="n">
+        <v>4</v>
+      </c>
+      <c r="D177" t="s">
+        <v>79</v>
+      </c>
+      <c r="E177" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" t="s">
+        <v>14</v>
+      </c>
+      <c r="G177" t="s">
+        <v>14</v>
+      </c>
+      <c r="H177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="B178" t="s">
+        <v>213</v>
+      </c>
+      <c r="C178" t="n">
+        <v>4</v>
+      </c>
+      <c r="D178" t="s">
+        <v>79</v>
+      </c>
+      <c r="E178" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" t="s">
+        <v>14</v>
+      </c>
+      <c r="G178" t="s">
+        <v>14</v>
+      </c>
+      <c r="H178" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="B179" t="s">
+        <v>214</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4</v>
+      </c>
+      <c r="D179" t="s">
+        <v>79</v>
+      </c>
+      <c r="E179" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179" t="s">
+        <v>14</v>
+      </c>
+      <c r="G179" t="s">
+        <v>14</v>
+      </c>
+      <c r="H179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="B180" t="s">
+        <v>215</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4</v>
+      </c>
+      <c r="D180" t="s">
+        <v>79</v>
+      </c>
+      <c r="E180" t="s">
+        <v>14</v>
+      </c>
+      <c r="F180" t="s">
+        <v>14</v>
+      </c>
+      <c r="G180" t="s">
+        <v>14</v>
+      </c>
+      <c r="H180" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="B181" t="s">
+        <v>216</v>
+      </c>
+      <c r="C181" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D181" t="s">
+        <v>33</v>
+      </c>
+      <c r="E181" t="s">
+        <v>34</v>
+      </c>
+      <c r="F181" t="s">
+        <v>14</v>
+      </c>
+      <c r="G181" t="s">
+        <v>14</v>
+      </c>
+      <c r="H181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="B184" t="s">
+        <v>150</v>
+      </c>
+      <c r="C184" t="n">
         <v>3.727</v>
       </c>
-      <c r="D174" t="s">
-        <v>153</v>
-      </c>
-      <c r="E174" t="s">
-        <v>205</v>
-      </c>
-      <c r="F174" t="s">
-        <v>13</v>
-      </c>
-      <c r="G174" t="s">
-        <v>13</v>
-      </c>
-      <c r="H174" t="s">
-        <v>13</v>
+      <c r="D184" t="s">
+        <v>170</v>
+      </c>
+      <c r="E184" t="s">
+        <v>29</v>
+      </c>
+      <c r="F184" t="s">
+        <v>14</v>
+      </c>
+      <c r="G184" t="s">
+        <v>14</v>
+      </c>
+      <c r="H184" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Fall2015/Output/Fall2015 GB.xlsx
+++ b/GradeDistributionsDB/Fall2015/Output/Fall2015 GB.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>BUSH-631</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>9.09%</t>
   </si>
   <si>
+    <t>4.35%</t>
+  </si>
+  <si>
     <t>INTA-601</t>
   </si>
   <si>
@@ -214,6 +220,9 @@
     <t>28.57%</t>
   </si>
   <si>
+    <t>12.50%</t>
+  </si>
+  <si>
     <t>INTA-620</t>
   </si>
   <si>
@@ -325,6 +334,9 @@
     <t>8.33%</t>
   </si>
   <si>
+    <t>7.69%</t>
+  </si>
+  <si>
     <t>INTA-657</t>
   </si>
   <si>
@@ -370,9 +382,6 @@
     <t>46.15%</t>
   </si>
   <si>
-    <t>7.69%</t>
-  </si>
-  <si>
     <t>INTA-673</t>
   </si>
   <si>
@@ -421,6 +430,9 @@
     <t>83.33%</t>
   </si>
   <si>
+    <t>14.29%</t>
+  </si>
+  <si>
     <t>HAMIE C</t>
   </si>
   <si>
@@ -454,9 +466,6 @@
     <t>52.38%</t>
   </si>
   <si>
-    <t>14.29%</t>
-  </si>
-  <si>
     <t>PSAA-604</t>
   </si>
   <si>
@@ -592,6 +601,9 @@
     <t>7.41%</t>
   </si>
   <si>
+    <t>3.57%</t>
+  </si>
+  <si>
     <t>LUM J</t>
   </si>
   <si>
@@ -601,7 +613,7 @@
     <t>13.04%</t>
   </si>
   <si>
-    <t>4.35%</t>
+    <t>4.17%</t>
   </si>
   <si>
     <t>PSAA-644</t>
@@ -632,6 +644,9 @@
   </si>
   <si>
     <t>DAVIS D</t>
+  </si>
+  <si>
+    <t>22.22%</t>
   </si>
   <si>
     <t>PSAA-660</t>
@@ -705,12 +720,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1004,15 +1018,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H184"/>
+  <dimension ref="A1:I184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1037,2105 +1051,2348 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.343</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>3.3885</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
         <v>3.5</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
         <v>3.908</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
         <v>3.6367</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" t="n">
         <v>3.667</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n">
         <v>3.84</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" t="n">
         <v>3.587</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" t="n">
         <v>3.526</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" t="n">
         <v>3.913</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="B23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" t="n">
         <v>3.6</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" t="n">
         <v>3.448</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C27" t="n">
         <v>2.625</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C28" t="n">
         <v>3.824</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C31" t="n">
         <v>3.714</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C34" t="n">
         <v>3.714</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C37" t="n">
         <v>3.5</v>
       </c>
       <c r="D37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="B40" t="s">
         <v>70</v>
-      </c>
-      <c r="E37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="B40" t="s">
-        <v>67</v>
       </c>
       <c r="C40" t="n">
         <v>3.625</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C43" t="n">
         <v>3.6</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E43" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C46" t="n">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C49" t="n">
         <v>3.417</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C52" t="n">
         <v>3.76</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C55" t="n">
         <v>3.438</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C58" t="n">
         <v>3.667</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C59" t="n">
         <v>2.909</v>
       </c>
       <c r="D59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E59" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C62" t="n">
         <v>3.944</v>
       </c>
       <c r="D62" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C63" t="n">
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E63" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F63" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C66" t="n">
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C69" t="n">
         <v>3.357</v>
       </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E69" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C72" t="n">
         <v>3.7</v>
       </c>
       <c r="D72" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E72" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C75" t="n">
         <v>3.947</v>
       </c>
       <c r="D75" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E75" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C78" t="n">
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C79" t="n">
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C82" t="n">
         <v>3.385</v>
       </c>
       <c r="D82" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E82" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F82" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C85" t="n">
         <v>3.25</v>
       </c>
       <c r="D85" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E85" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F85" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C88" t="n">
         <v>3.368</v>
       </c>
       <c r="D88" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E88" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="B91" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C91" t="n">
         <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E91" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H91" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="B94" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C94" t="n">
         <v>3.917</v>
       </c>
       <c r="D94" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E94" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="B97" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C97" t="n">
         <v>3.875</v>
       </c>
       <c r="D97" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E97" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C98" t="n">
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="B99" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C99" t="n">
         <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="B100" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C100" t="n">
         <v>3.833</v>
       </c>
       <c r="D100" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E100" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C101" t="n">
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="B102" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C102" t="n">
         <v>3.583</v>
       </c>
       <c r="D102" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E102" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="B105" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C105" t="n">
         <v>3.976</v>
       </c>
       <c r="D105" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E105" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="B106" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C106" t="n">
         <v>3.125</v>
       </c>
       <c r="D106" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E106" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H106" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C107" t="n">
         <v>3.381</v>
       </c>
       <c r="D107" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C110" t="n">
         <v>3.833</v>
       </c>
       <c r="D110" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E110" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C113" t="n">
         <v>3.286</v>
       </c>
       <c r="D113" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E113" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C116" t="n">
         <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C119" t="n">
         <v>3.444</v>
       </c>
       <c r="D119" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E119" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="B122" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C122" t="n">
         <v>3.978</v>
       </c>
       <c r="D122" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E122" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="B125" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C125" t="n">
         <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H125" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="B128" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C128" t="n">
         <v>3.682</v>
       </c>
       <c r="D128" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E128" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H128" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I128" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="B131" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C131" t="n">
         <v>3.1205</v>
       </c>
       <c r="D131" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E131" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F131" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H131" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C132" t="n">
         <v>3.682</v>
       </c>
       <c r="D132" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E132" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="B135" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C135" t="n">
         <v>3.9735</v>
       </c>
       <c r="D135" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E135" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="B138" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C138" t="n">
         <v>3.417</v>
       </c>
       <c r="D138" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E138" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H138" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I138" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="B141" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C141" t="n">
         <v>3.909</v>
       </c>
       <c r="D141" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E141" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I141" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="B144" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C144" t="n">
         <v>3.2</v>
       </c>
       <c r="D144" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H144" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="B145" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C145" t="n">
         <v>3.9</v>
       </c>
       <c r="D145" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E145" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="B148" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C148" t="n">
         <v>3.214</v>
       </c>
       <c r="D148" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E148" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H148" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="B151" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C151" t="n">
         <v>3.111</v>
       </c>
       <c r="D151" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E151" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F151" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G151" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I151" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="B152" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C152" t="n">
         <v>3.4885</v>
       </c>
       <c r="D152" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E152" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F152" t="s">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="G152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H152" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I152" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="B155" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C155" t="n">
         <v>3.5</v>
       </c>
       <c r="D155" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E155" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F155" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G155" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H155" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I155" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="B158" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C158" t="n">
         <v>3.333</v>
       </c>
       <c r="D158" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E158" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F158" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G158" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H158" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I158" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="B161" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C161" t="n">
         <v>3.222</v>
       </c>
       <c r="D161" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E161" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H161" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>193</v>
+      </c>
+      <c r="I161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="B164" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C164" t="n">
         <v>3.286</v>
       </c>
       <c r="D164" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E164" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G164" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H164" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I164" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="B167" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C167" t="n">
         <v>3.938</v>
       </c>
       <c r="D167" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E167" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H167" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I167" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="B170" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C170" t="n">
         <v>3.857</v>
       </c>
       <c r="D170" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E170" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G170" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H170" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I170" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="B173" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C173" t="n">
         <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H173" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I173" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="B174" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C174" t="n">
         <v>3</v>
       </c>
       <c r="D174" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E174" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G174" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H174" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I174" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="B175" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C175" t="n">
         <v>3.833</v>
       </c>
       <c r="D175" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E175" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G175" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H175" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I175" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="B176" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C176" t="n">
         <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E176" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G176" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H176" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I176" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="B177" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C177" t="n">
         <v>4</v>
       </c>
       <c r="D177" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E177" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G177" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H177" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I177" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="B178" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C178" t="n">
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E178" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G178" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H178" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I178" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="B179" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C179" t="n">
         <v>4</v>
       </c>
       <c r="D179" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E179" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G179" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H179" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I179" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="B180" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C180" t="n">
         <v>4</v>
       </c>
       <c r="D180" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E180" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G180" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H180" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I180" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="B181" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C181" t="n">
         <v>3.667</v>
       </c>
       <c r="D181" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E181" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G181" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H181" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I181" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="B184" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C184" t="n">
         <v>3.727</v>
       </c>
       <c r="D184" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E184" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F184" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G184" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H184" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I184" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
